--- a/biology/Botanique/Ipomoea_lobata/Ipomoea_lobata.xlsx
+++ b/biology/Botanique/Ipomoea_lobata/Ipomoea_lobata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ipomoea lobata, la mina lobée ou plumes d'indiens, est une espèce de plantes dicotylédones de la famille des Convolvulaceae, tribu des Ipomoeeae, originaire du Mexique.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes vivaces grimpantes, aux feuilles dentées et lobées, et aux fleurs rouges virant au jaune, groupées en grappes unilatérales.
 </t>
@@ -542,7 +556,9 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est souvent cultivée comme plante ornementale annuelle dans les régions tempérées pour sa floraison attrayante. Elle a été introduite dans de nombreuses régions tropicales et subtropicales du monde
 </t>
@@ -573,12 +589,14 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (15 décembre 2019)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (15 décembre 2019) :
 Convolvulus mina Kuntze
 Ipomoea mina Voss
-Ipomoea versicolor Meisn.[2]
+Ipomoea versicolor Meisn.
 Mina cordata Micheli
 Mina lobata Cerv.
 Quamoclit lobata (Cerv.) House
